--- a/Final Self Assessment Form COM3504-COM6504.xlsx
+++ b/Final Self Assessment Form COM3504-COM6504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/study/sheffield/intellengent web/assignment/HailGreenWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D9CCA6-77DA-8A42-9AF1-9B3F292FEEE3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33349C8-AB5E-094E-86DB-19291901DB26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Team Name</t>
   </si>
@@ -298,6 +298,28 @@
     <t>When we submit a new story, Socket.i.o will work to count the number of new stories we update</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
+  <si>
+    <t>Each time we get the data of story, rate and comments the data will be saved in indexedDB and we can use the data in it in offline status</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The qulality is quite good</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All the results in test are correct </t>
+  </si>
+  <si>
+    <t>MongoDB is used to save data of user, story,rate, whenwe get stories we will read the data from mongoDB</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the organisation is designed by the the demands of the system</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>When the mongoDB is update the IndexedDB will update when we send the ajax in get infomation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -325,6 +347,7 @@
       <b/>
       <sz val="14"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
@@ -340,6 +363,7 @@
     <font>
       <sz val="8"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -351,40 +375,47 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color indexed="8"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Lucida Grande"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Courier New"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Times"/>
+      <family val="1"/>
     </font>
     <font>
       <u/>
@@ -698,12 +729,10 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Default 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1182,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1447,7 @@
       <c r="E20" s="35">
         <v>5</v>
       </c>
-      <c r="F20" s="53" t="s">
+      <c r="F20" s="52" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="3"/>
@@ -1504,7 +1533,7 @@
       <c r="E30" s="35">
         <v>5</v>
       </c>
-      <c r="F30" s="53" t="s">
+      <c r="F30" s="52" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1516,18 +1545,21 @@
       <c r="E31" s="35">
         <v>5</v>
       </c>
-      <c r="F31" s="53" t="s">
+      <c r="F31" s="52" t="s">
         <v>72</v>
       </c>
       <c r="G31" s="3"/>
     </row>
-    <row r="32" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="80" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="10" t="s">
         <v>44</v>
       </c>
       <c r="E32" s="35">
         <v>5</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>78</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1549,12 +1581,12 @@
       <c r="E34" s="35">
         <v>5</v>
       </c>
-      <c r="F34" s="53" t="s">
+      <c r="F34" s="52" t="s">
         <v>70</v>
       </c>
       <c r="G34" s="3"/>
     </row>
-    <row r="35" spans="1:7" ht="48" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="44" t="s">
         <v>39</v>
@@ -1585,6 +1617,9 @@
       <c r="E37" s="35">
         <v>5</v>
       </c>
+      <c r="F37" s="53" t="s">
+        <v>79</v>
+      </c>
       <c r="G37" s="3"/>
     </row>
     <row r="38" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1595,6 +1630,9 @@
       <c r="E38" s="35">
         <v>5</v>
       </c>
+      <c r="F38" s="53" t="s">
+        <v>80</v>
+      </c>
       <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:7" ht="198" x14ac:dyDescent="0.25">
@@ -1626,7 +1664,7 @@
       <c r="E41" s="49">
         <v>5</v>
       </c>
-      <c r="F41" s="53" t="s">
+      <c r="F41" s="52" t="s">
         <v>73</v>
       </c>
       <c r="G41" s="3"/>
@@ -1639,7 +1677,7 @@
       <c r="E42" s="49">
         <v>5</v>
       </c>
-      <c r="F42" s="53" t="s">
+      <c r="F42" s="52" t="s">
         <v>74</v>
       </c>
       <c r="G42" s="3"/>
@@ -1652,7 +1690,7 @@
       <c r="E43" s="35">
         <v>5</v>
       </c>
-      <c r="F43" s="44" t="s">
+      <c r="F43" s="53" t="s">
         <v>75</v>
       </c>
       <c r="G43" s="3"/>
@@ -1665,7 +1703,7 @@
       <c r="E44" s="35">
         <v>5</v>
       </c>
-      <c r="F44" s="44" t="s">
+      <c r="F44" s="53" t="s">
         <v>76</v>
       </c>
       <c r="G44" s="3"/>
@@ -1699,7 +1737,7 @@
       <c r="B48" s="28"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="41"/>
       <c r="B49" s="44" t="s">
         <v>33</v>
@@ -1708,9 +1746,12 @@
       <c r="E49" s="49">
         <v>5</v>
       </c>
+      <c r="F49" s="52" t="s">
+        <v>81</v>
+      </c>
       <c r="G49" s="3"/>
     </row>
-    <row r="50" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A50" s="41"/>
       <c r="B50" s="45" t="s">
         <v>47</v>
@@ -1719,9 +1760,12 @@
       <c r="E50" s="49">
         <v>5</v>
       </c>
+      <c r="F50" s="52" t="s">
+        <v>82</v>
+      </c>
       <c r="G50" s="3"/>
     </row>
-    <row r="51" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="41"/>
       <c r="B51" s="44" t="s">
         <v>34</v>
@@ -1729,6 +1773,9 @@
       <c r="C51" s="6"/>
       <c r="E51" s="49">
         <v>5</v>
+      </c>
+      <c r="F51" s="52" t="s">
+        <v>83</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -1740,6 +1787,9 @@
       <c r="E52" s="35">
         <v>5</v>
       </c>
+      <c r="F52" s="53" t="s">
+        <v>75</v>
+      </c>
       <c r="G52" s="3"/>
     </row>
     <row r="53" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1750,7 +1800,9 @@
       <c r="E53" s="35">
         <v>5</v>
       </c>
-      <c r="F53" s="3"/>
+      <c r="F53" s="53" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="54" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>

--- a/Final Self Assessment Form COM3504-COM6504.xlsx
+++ b/Final Self Assessment Form COM3504-COM6504.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/study/sheffield/intellengent web/assignment/HailGreenWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F33349C8-AB5E-094E-86DB-19291901DB26}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97EE405-915A-C44E-A6C7-53BC2001DC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
   <si>
     <t>Team Name</t>
   </si>
@@ -318,6 +318,34 @@
   </si>
   <si>
     <t>When the mongoDB is update the IndexedDB will update when we send the ajax in get infomation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>We have a form in mongoDB and it can manage users but in website just have the function for login</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>We must have exactly userId and storyId then it can be changed.However if some people copy the url and have the exactly data it will lead problems.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the structure of data in our system is JSON</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The interface is disigned simple. It uses Streaming layout to display the stories. And each elements have a clear explain </t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the client we have divided from different error codes but in website we have't solved it</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>A simple login system is used if users enter a unknown users it can't enter the wall</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Each function have a comments to explain the use of the function and in some special codes will have in-line commenting</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1211,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1907,7 +1935,7 @@
       <c r="B65" s="28"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A66" s="41"/>
       <c r="B66" s="43" t="s">
         <v>35</v>
@@ -1916,8 +1944,11 @@
       <c r="E66" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="F66" s="52" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="43" t="s">
         <v>64</v>
@@ -1926,16 +1957,22 @@
       <c r="E67" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="F67" s="52" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="B68" s="6" t="s">
         <v>25</v>
       </c>
       <c r="E68" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" ht="54" x14ac:dyDescent="0.25">
+      <c r="F68" s="52" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="6" t="s">
         <v>26</v>
@@ -1943,8 +1980,11 @@
       <c r="E69" s="35">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+      <c r="F69" s="52" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
       <c r="B70" s="6" t="s">
         <v>24</v>
@@ -1953,9 +1993,12 @@
       <c r="E70" s="35">
         <v>3</v>
       </c>
+      <c r="F70" s="52" t="s">
+        <v>88</v>
+      </c>
       <c r="G70" s="3"/>
     </row>
-    <row r="71" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="6" t="s">
         <v>48</v>
@@ -1963,6 +2006,9 @@
       <c r="C71" s="4"/>
       <c r="E71" s="35">
         <v>5</v>
+      </c>
+      <c r="F71" s="52" t="s">
+        <v>89</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -1985,7 +2031,7 @@
       <c r="E74" s="38"/>
       <c r="G74" s="3"/>
     </row>
-    <row r="75" spans="1:7" ht="36" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A75" s="23"/>
       <c r="B75" s="6" t="s">
         <v>14</v>
@@ -1993,6 +2039,9 @@
       <c r="C75" s="6"/>
       <c r="E75" s="38">
         <v>5</v>
+      </c>
+      <c r="F75" s="52" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">

--- a/Final Self Assessment Form COM3504-COM6504.xlsx
+++ b/Final Self Assessment Form COM3504-COM6504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/study/sheffield/intellengent web/assignment/HailGreenWeb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzhicheng/Desktop/Sheffield/春季/COM6504 Web/Assignment/HailGreenWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D97EE405-915A-C44E-A6C7-53BC2001DC41}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304B8FA-4E23-074D-9A08-735398A06C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
   <si>
     <t>Team Name</t>
   </si>
@@ -196,12 +196,6 @@
   </si>
   <si>
     <t>for example here I would expect you to let us know why you have chosen a specific organisation of the mongo modules, why the database design is appropriate (e.g. in line with my teaching) efficient and following the NoSQL organisation (i.e. you have not just created a SQL database in a different format), etc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">for example here I would expect you to explain what type of algorithm you have chosen, the reason why it is appropriate (any specific requirements/use in mind?) and why you believe your solution will scale up (if it does) </t>
-  </si>
-  <si>
-    <t>for example here we would expect you to focus on the way you have organised the web worker and the relation between offline (cache and IndexDB) and online. Does your solution work both offline and online? Can you post while offline? Do you use a cache first approach or a network first approach (or any other intermediate solution?) Why? etc. Do you use Ajax? what for? Why is it appropriate? Do you use socket.io? what for? Why is it appropriate?</t>
   </si>
   <si>
     <r>
@@ -303,9 +297,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>The qulality is quite good</t>
-  </si>
-  <si>
     <t xml:space="preserve">All the results in test are correct </t>
   </si>
   <si>
@@ -346,6 +337,23 @@
   </si>
   <si>
     <t>Each function have a comments to explain the use of the function and in some special codes will have in-line commenting</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>This project implements both of the recommender algorithms and the index page can show the stories obtained from the server side.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>We apply the lazy load method to deal with large number of users and documents.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>The results satisfies the requirements.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>In order to implement recommender algorithms, the input needs to be organized as a specific structure: a collection of users, and each user contains multiple rates of stories and this requirement is resolved in the server side. Both of the two algorithms are adopted, and the user can click the strategy in the index page.
+Furthermore, this project applies a lazy load strategy, which means it just displays only 10 documents and it is updated for each time. Thus, the index is able to deal with the large number of documents and is non-blocking.</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -622,7 +630,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -761,6 +769,15 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="70">
     <cellStyle name="Default 1" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1239,8 +1256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F75" sqref="F75"/>
+    <sheetView tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1279,7 +1296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
@@ -1296,7 +1313,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
@@ -1313,7 +1330,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
@@ -1398,7 +1415,7 @@
         <v>5</v>
       </c>
       <c r="F12" s="51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:256" ht="90" x14ac:dyDescent="0.25">
@@ -1411,7 +1428,7 @@
         <v>5</v>
       </c>
       <c r="F13" s="50" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:256" ht="36" x14ac:dyDescent="0.25">
@@ -1433,7 +1450,7 @@
         <v>5</v>
       </c>
       <c r="F15" s="50" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G15" s="3"/>
     </row>
@@ -1469,14 +1486,14 @@
         <v>30</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C20" s="6"/>
       <c r="E20" s="35">
         <v>5</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G20" s="3"/>
       <c r="H20" s="1"/>
@@ -1534,7 +1551,7 @@
         <v>12</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E26" s="47"/>
       <c r="G26" s="3"/>
@@ -1562,7 +1579,7 @@
         <v>5</v>
       </c>
       <c r="F30" s="52" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="60" x14ac:dyDescent="0.25">
@@ -1574,7 +1591,7 @@
         <v>5</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G31" s="3"/>
     </row>
@@ -1587,7 +1604,7 @@
         <v>5</v>
       </c>
       <c r="F32" s="52" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G32" s="3"/>
     </row>
@@ -1610,7 +1627,7 @@
         <v>5</v>
       </c>
       <c r="F34" s="52" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G34" s="3"/>
     </row>
@@ -1623,7 +1640,7 @@
         <v>5</v>
       </c>
       <c r="F35" s="52" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G35" s="3"/>
     </row>
@@ -1646,7 +1663,7 @@
         <v>5</v>
       </c>
       <c r="F37" s="53" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G37" s="3"/>
     </row>
@@ -1659,20 +1676,17 @@
         <v>5</v>
       </c>
       <c r="F38" s="53" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" ht="198" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="180" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="14" t="s">
         <v>12</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E39" s="48"/>
       <c r="F39" s="3"/>
@@ -1693,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="F41" s="52" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G41" s="3"/>
     </row>
@@ -1706,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="F42" s="52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G42" s="3"/>
     </row>
@@ -1719,7 +1733,7 @@
         <v>5</v>
       </c>
       <c r="F43" s="53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G43" s="3"/>
     </row>
@@ -1732,7 +1746,7 @@
         <v>5</v>
       </c>
       <c r="F44" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G44" s="3"/>
     </row>
@@ -1775,7 +1789,7 @@
         <v>5</v>
       </c>
       <c r="F49" s="52" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G49" s="3"/>
     </row>
@@ -1789,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="F50" s="52" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G50" s="3"/>
     </row>
@@ -1803,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="F51" s="52" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G51" s="3"/>
     </row>
@@ -1816,7 +1830,7 @@
         <v>5</v>
       </c>
       <c r="F52" s="53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G52" s="3"/>
     </row>
@@ -1829,7 +1843,7 @@
         <v>5</v>
       </c>
       <c r="F53" s="53" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="180" x14ac:dyDescent="0.25">
@@ -1858,7 +1872,7 @@
       <c r="B56" s="28"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A57" s="41"/>
       <c r="B57" s="44" t="s">
         <v>53</v>
@@ -1867,9 +1881,12 @@
       <c r="E57" s="49">
         <v>5</v>
       </c>
+      <c r="F57" s="54" t="s">
+        <v>88</v>
+      </c>
       <c r="G57" s="3"/>
     </row>
-    <row r="58" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="40" x14ac:dyDescent="0.25">
       <c r="A58" s="41"/>
       <c r="B58" s="45" t="s">
         <v>54</v>
@@ -1877,6 +1894,9 @@
       <c r="C58" s="6"/>
       <c r="E58" s="49">
         <v>5</v>
+      </c>
+      <c r="F58" s="54" t="s">
+        <v>89</v>
       </c>
       <c r="G58" s="3"/>
     </row>
@@ -1888,6 +1908,9 @@
       <c r="E59" s="35">
         <v>5</v>
       </c>
+      <c r="F59" s="55" t="s">
+        <v>73</v>
+      </c>
       <c r="G59" s="3"/>
     </row>
     <row r="60" spans="1:7" ht="19" x14ac:dyDescent="0.25">
@@ -1898,9 +1921,11 @@
       <c r="E60" s="35">
         <v>5</v>
       </c>
-      <c r="F60" s="3"/>
-    </row>
-    <row r="61" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+      <c r="F60" s="56" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="320" x14ac:dyDescent="0.25">
       <c r="A61" s="23"/>
       <c r="B61" s="14" t="s">
         <v>12</v>
@@ -1908,11 +1933,10 @@
       <c r="C61" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="15" t="s">
-        <v>57</v>
-      </c>
       <c r="E61" s="48"/>
-      <c r="F61" s="3"/>
+      <c r="F61" s="50" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
@@ -1945,20 +1969,20 @@
         <v>3</v>
       </c>
       <c r="F66" s="52" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="80" x14ac:dyDescent="0.25">
       <c r="A67" s="41"/>
       <c r="B67" s="43" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C67" s="6"/>
       <c r="E67" s="35">
         <v>3</v>
       </c>
       <c r="F67" s="52" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="40" x14ac:dyDescent="0.25">
@@ -1969,7 +1993,7 @@
         <v>5</v>
       </c>
       <c r="F68" s="52" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1981,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="F69" s="52" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="60" x14ac:dyDescent="0.25">
@@ -1994,7 +2018,7 @@
         <v>3</v>
       </c>
       <c r="F70" s="52" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G70" s="3"/>
     </row>
@@ -2008,7 +2032,7 @@
         <v>5</v>
       </c>
       <c r="F71" s="52" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G71" s="3"/>
     </row>
@@ -2041,7 +2065,7 @@
         <v>5</v>
       </c>
       <c r="F75" s="52" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">

--- a/Final Self Assessment Form COM3504-COM6504.xlsx
+++ b/Final Self Assessment Form COM3504-COM6504.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhouzhicheng/Desktop/Sheffield/春季/COM6504 Web/Assignment/HailGreenWeb/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/study/sheffield/intellengent web/assignment/HailGreenWeb/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3304B8FA-4E23-074D-9A08-735398A06C7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{259383DB-6D68-DD4B-88D1-B068598E8DE7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28800" yWindow="460" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="94">
   <si>
     <t>Team Name</t>
   </si>
@@ -354,6 +354,16 @@
   <si>
     <t>In order to implement recommender algorithms, the input needs to be organized as a specific structure: a collection of users, and each user contains multiple rates of stories and this requirement is resolved in the server side. Both of the two algorithms are adopted, and the user can click the strategy in the index page.
 Furthermore, this project applies a lazy load strategy, which means it just displays only 10 documents and it is updated for each time. Thus, the index is able to deal with the large number of documents and is non-blocking.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>All the data send to server are useful and the redundance is mininum. Therefore,  the data will be correct and the speed of ajax is full of use. 
+And multer and formData is used to update images. Compare with other methods to upload images, we needn't to change the structure of the data and can save it in database directly. And multer help us to save the file in system and need't to find the route in ant other way. Thus, the effiency is better than others.</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Users can click release button to upload their post. In post they can upload max 3 pictures includes photos by camera. After add three pictures the button of take photos and uplaod pictures will disappear unless delete one of the pics.
+In wall, it is divided into two types, common wall and personal wall. In common wall it will display all the stories in order to solve the problem in large data, lazy load is used. Each time only load 10  stories and when the page is to the end new stories will be loaded and display. Alao it can change the way to display. In personal wall userrs can only see the stories of one user.  </t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -1256,8 +1266,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B57" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1545,7 +1555,7 @@
       <c r="E25" s="35"/>
       <c r="G25" s="3"/>
     </row>
-    <row r="26" spans="1:8" ht="244" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="331" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="14" t="s">
         <v>12</v>
@@ -1554,6 +1564,9 @@
         <v>61</v>
       </c>
       <c r="E26" s="47"/>
+      <c r="F26" s="52" t="s">
+        <v>93</v>
+      </c>
       <c r="G26" s="3"/>
     </row>
     <row r="27" spans="1:8" ht="19" x14ac:dyDescent="0.25">
@@ -1750,7 +1763,7 @@
       </c>
       <c r="G44" s="3"/>
     </row>
-    <row r="45" spans="1:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="260" x14ac:dyDescent="0.25">
       <c r="A45" s="23"/>
       <c r="B45" s="14" t="s">
         <v>12</v>
@@ -1762,7 +1775,9 @@
         <v>55</v>
       </c>
       <c r="E45" s="48"/>
-      <c r="F45" s="3"/>
+      <c r="F45" s="50" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="23"/>
